--- a/packages/excel2js/in/T弹框.xlsx
+++ b/packages/excel2js/in/T弹框.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>id</t>
   </si>
@@ -44,16 +44,22 @@
   <si>
     <t>prefabs/msg/MsgTextPrompt</t>
   </si>
+  <si>
+    <t>MsgTestPrompt</t>
+  </si>
+  <si>
+    <t>prefabs/msg/MsgTestPrompt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +71,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -73,7 +93,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,13 +104,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,21 +116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,9 +137,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +160,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -171,38 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,17 +417,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,6 +465,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -469,45 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,7 +534,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,124 +543,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
@@ -1066,6 +1072,17 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
         <v>3000</v>
       </c>
     </row>

--- a/packages/excel2js/in/T弹框.xlsx
+++ b/packages/excel2js/in/T弹框.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>prefabs/msg/MsgTestPrompt</t>
+  </si>
+  <si>
+    <t>MsgWait</t>
+  </si>
+  <si>
+    <t>prefabs/msg/MsgWait</t>
   </si>
 </sst>
 </file>
@@ -56,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,13 +84,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -101,9 +100,78 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,22 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,71 +197,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,25 +229,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,157 +373,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +438,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -441,11 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,36 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -503,17 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,13 +1024,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
@@ -1083,6 +1089,17 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
         <v>3000</v>
       </c>
     </row>

--- a/packages/excel2js/in/T弹框.xlsx
+++ b/packages/excel2js/in/T弹框.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>id</t>
   </si>
@@ -39,16 +39,7 @@
     <t>order</t>
   </si>
   <si>
-    <t>MsgTextPrompt</t>
-  </si>
-  <si>
-    <t>prefabs/msg/MsgTextPrompt</t>
-  </si>
-  <si>
-    <t>MsgTestPrompt</t>
-  </si>
-  <si>
-    <t>prefabs/msg/MsgTestPrompt</t>
+    <t>MsgPrompt</t>
   </si>
   <si>
     <t>MsgWait</t>
@@ -62,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,6 +81,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -99,6 +97,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -121,8 +156,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -131,14 +181,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,30 +189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,38 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,187 +220,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +430,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -456,18 +462,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -478,21 +482,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,9 +503,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,145 +519,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
@@ -1075,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>3000</v>
@@ -1083,23 +1074,12 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
         <v>3000</v>
       </c>
     </row>

--- a/packages/excel2js/in/T弹框.xlsx
+++ b/packages/excel2js/in/T弹框.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,12 @@
   <si>
     <t>prefabs/msg/MsgWait</t>
   </si>
+  <si>
+    <t>MsgDialog</t>
+  </si>
+  <si>
+    <t>prefabs/msg/MsgDialog</t>
+  </si>
 </sst>
 </file>
 
@@ -81,6 +87,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -88,31 +110,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,8 +170,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,41 +194,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,13 +226,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,13 +346,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,145 +382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,21 +417,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,6 +431,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,41 +477,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +508,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,13 +1021,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
@@ -1081,6 +1087,17 @@
       </c>
       <c r="C5" s="1">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3001</v>
       </c>
     </row>
   </sheetData>

--- a/packages/excel2js/in/T弹框.xlsx
+++ b/packages/excel2js/in/T弹框.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Msg" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>MsgPrompt</t>
+  </si>
+  <si>
+    <t>prefabs/msg/MsgPrompt</t>
   </si>
   <si>
     <t>MsgWait</t>
@@ -61,8 +64,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,44 +77,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,8 +98,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,7 +162,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,41 +198,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,25 +229,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,157 +361,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,21 +420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,6 +443,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,17 +514,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -525,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,100 +540,124 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,31 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1027,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1072,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>3000</v>
@@ -1080,10 +1083,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>3000</v>
@@ -1091,10 +1094,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>3001</v>
